--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2452,28 +2452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>206.0262059211348</v>
+        <v>275.0078074304337</v>
       </c>
       <c r="AB2" t="n">
-        <v>281.8941441758857</v>
+        <v>376.2778146145162</v>
       </c>
       <c r="AC2" t="n">
-        <v>254.9905626967383</v>
+        <v>340.3663880969357</v>
       </c>
       <c r="AD2" t="n">
-        <v>206026.2059211349</v>
+        <v>275007.8074304337</v>
       </c>
       <c r="AE2" t="n">
-        <v>281894.1441758858</v>
+        <v>376277.8146145162</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.08045198527732e-06</v>
+        <v>2.999313592664981e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>254990.5626967383</v>
+        <v>340366.3880969357</v>
       </c>
     </row>
     <row r="3">
@@ -2558,28 +2558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>157.7441898901028</v>
+        <v>218.0070827493432</v>
       </c>
       <c r="AB3" t="n">
-        <v>215.8325597900451</v>
+        <v>298.2869084112141</v>
       </c>
       <c r="AC3" t="n">
-        <v>195.2338032066452</v>
+        <v>269.8188245208412</v>
       </c>
       <c r="AD3" t="n">
-        <v>157744.1898901028</v>
+        <v>218007.0827493432</v>
       </c>
       <c r="AE3" t="n">
-        <v>215832.5597900451</v>
+        <v>298286.9084112141</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.55540499821808e-06</v>
+        <v>3.684036449847634e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.88802083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>195233.8032066452</v>
+        <v>269818.8245208412</v>
       </c>
     </row>
     <row r="4">
@@ -2664,28 +2664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>150.3017071578759</v>
+        <v>193.4686356438438</v>
       </c>
       <c r="AB4" t="n">
-        <v>205.6494265766523</v>
+        <v>264.7123225216037</v>
       </c>
       <c r="AC4" t="n">
-        <v>186.0225339350181</v>
+        <v>239.4485499862972</v>
       </c>
       <c r="AD4" t="n">
-        <v>150301.7071578759</v>
+        <v>193468.6356438439</v>
       </c>
       <c r="AE4" t="n">
-        <v>205649.4265766523</v>
+        <v>264712.3225216037</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.757775876053562e-06</v>
+        <v>3.97578734289725e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>186022.5339350181</v>
+        <v>239448.5499862972</v>
       </c>
     </row>
     <row r="5">
@@ -2770,28 +2770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>138.1170827679651</v>
+        <v>189.8319486862937</v>
       </c>
       <c r="AB5" t="n">
-        <v>188.9778859386948</v>
+        <v>259.7364469869808</v>
       </c>
       <c r="AC5" t="n">
-        <v>170.9421017368878</v>
+        <v>234.947565029012</v>
       </c>
       <c r="AD5" t="n">
-        <v>138117.0827679651</v>
+        <v>189831.9486862937</v>
       </c>
       <c r="AE5" t="n">
-        <v>188977.8859386948</v>
+        <v>259736.4469869807</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.835573123553639e-06</v>
+        <v>4.087944866142275e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.71614583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>170942.1017368878</v>
+        <v>234947.565029012</v>
       </c>
     </row>
     <row r="6">
@@ -2876,28 +2876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>135.2157647440191</v>
+        <v>178.2973523754154</v>
       </c>
       <c r="AB6" t="n">
-        <v>185.0081746212162</v>
+        <v>243.9543034439699</v>
       </c>
       <c r="AC6" t="n">
-        <v>167.3512540960232</v>
+        <v>220.6716471153635</v>
       </c>
       <c r="AD6" t="n">
-        <v>135215.7647440191</v>
+        <v>178297.3523754154</v>
       </c>
       <c r="AE6" t="n">
-        <v>185008.1746212162</v>
+        <v>243954.3034439699</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.898571854727569e-06</v>
+        <v>4.178767895016661e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.48177083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>167351.2540960232</v>
+        <v>220671.6471153635</v>
       </c>
     </row>
     <row r="7">
@@ -2982,28 +2982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>134.3891010059018</v>
+        <v>177.470688637298</v>
       </c>
       <c r="AB7" t="n">
-        <v>183.8770968248944</v>
+        <v>242.8232256476481</v>
       </c>
       <c r="AC7" t="n">
-        <v>166.3281247771044</v>
+        <v>219.6485177964447</v>
       </c>
       <c r="AD7" t="n">
-        <v>134389.1010059018</v>
+        <v>177470.688637298</v>
       </c>
       <c r="AE7" t="n">
-        <v>183877.0968248944</v>
+        <v>242823.2256476481</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.914747520049366e-06</v>
+        <v>4.202087776087408e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.4296875</v>
       </c>
       <c r="AH7" t="n">
-        <v>166328.1247771044</v>
+        <v>219648.5177964446</v>
       </c>
     </row>
   </sheetData>
@@ -3279,28 +3279,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>176.7533577302747</v>
+        <v>227.2579885688432</v>
       </c>
       <c r="AB2" t="n">
-        <v>241.8417418542531</v>
+        <v>310.9444058746086</v>
       </c>
       <c r="AC2" t="n">
-        <v>218.7607054387698</v>
+        <v>281.2683081912426</v>
       </c>
       <c r="AD2" t="n">
-        <v>176753.3577302747</v>
+        <v>227257.9885688432</v>
       </c>
       <c r="AE2" t="n">
-        <v>241841.7418542531</v>
+        <v>310944.4058746086</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.39991704440962e-06</v>
+        <v>3.513388270649512e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.09895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>218760.7054387698</v>
+        <v>281268.3081912426</v>
       </c>
     </row>
     <row r="3">
@@ -3385,28 +3385,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.1212544518493</v>
+        <v>186.2084617354149</v>
       </c>
       <c r="AB3" t="n">
-        <v>197.193058521941</v>
+        <v>254.7786322838287</v>
       </c>
       <c r="AC3" t="n">
-        <v>178.3732297788587</v>
+        <v>230.4629172027905</v>
       </c>
       <c r="AD3" t="n">
-        <v>144121.2544518493</v>
+        <v>186208.4617354149</v>
       </c>
       <c r="AE3" t="n">
-        <v>197193.058521941</v>
+        <v>254778.6322838287</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.852035433981264e-06</v>
+        <v>4.175272584762013e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.02864583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>178373.2297788587</v>
+        <v>230462.9172027905</v>
       </c>
     </row>
     <row r="4">
@@ -3491,28 +3491,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>130.6777891643769</v>
+        <v>172.6796555933709</v>
       </c>
       <c r="AB4" t="n">
-        <v>178.7991162317997</v>
+        <v>236.2679228714898</v>
       </c>
       <c r="AC4" t="n">
-        <v>161.7347795248225</v>
+        <v>213.7188439168155</v>
       </c>
       <c r="AD4" t="n">
-        <v>130677.7891643769</v>
+        <v>172679.6555933708</v>
       </c>
       <c r="AE4" t="n">
-        <v>178799.1162317997</v>
+        <v>236267.9228714897</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.996044944524166e-06</v>
+        <v>4.386097090709832e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.49479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>161734.7795248225</v>
+        <v>213718.8439168155</v>
       </c>
     </row>
     <row r="5">
@@ -3597,28 +3597,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>127.64430830424</v>
+        <v>169.6461747332339</v>
       </c>
       <c r="AB5" t="n">
-        <v>174.648573891232</v>
+        <v>232.117380530922</v>
       </c>
       <c r="AC5" t="n">
-        <v>157.9803591199145</v>
+        <v>209.9644235119075</v>
       </c>
       <c r="AD5" t="n">
-        <v>127644.30830424</v>
+        <v>169646.1747332339</v>
       </c>
       <c r="AE5" t="n">
-        <v>174648.573891232</v>
+        <v>232117.3805309221</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.072709967323245e-06</v>
+        <v>4.498331800029805e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.234375</v>
       </c>
       <c r="AH5" t="n">
-        <v>157980.3591199145</v>
+        <v>209964.4235119075</v>
       </c>
     </row>
     <row r="6">
@@ -3703,28 +3703,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>127.6086675665737</v>
+        <v>169.6105339955676</v>
       </c>
       <c r="AB6" t="n">
-        <v>174.5998086615986</v>
+        <v>232.0686153012887</v>
       </c>
       <c r="AC6" t="n">
-        <v>157.9362479753549</v>
+        <v>209.9203123673479</v>
       </c>
       <c r="AD6" t="n">
-        <v>127608.6675665737</v>
+        <v>169610.5339955676</v>
       </c>
       <c r="AE6" t="n">
-        <v>174599.8086615987</v>
+        <v>232068.6153012887</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.074448512722153e-06</v>
+        <v>4.50087696509155e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.22135416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>157936.2479753549</v>
+        <v>209920.3123673479</v>
       </c>
     </row>
   </sheetData>
@@ -4000,28 +4000,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.3369957315379</v>
+        <v>151.0881880567161</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.704433518302</v>
+        <v>206.7255244395333</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.0350981088846</v>
+        <v>186.9959305281789</v>
       </c>
       <c r="AD2" t="n">
-        <v>112336.9957315379</v>
+        <v>151088.1880567161</v>
       </c>
       <c r="AE2" t="n">
-        <v>153704.433518302</v>
+        <v>206725.5244395333</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.413877533507342e-06</v>
+        <v>5.281689929191531e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.2734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>139035.0981088846</v>
+        <v>186995.9305281789</v>
       </c>
     </row>
     <row r="3">
@@ -4106,28 +4106,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.8488498352183</v>
+        <v>149.2819005315136</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.7223337155095</v>
+        <v>204.2540821597709</v>
       </c>
       <c r="AC3" t="n">
-        <v>127.291991690775</v>
+        <v>184.7603592309053</v>
       </c>
       <c r="AD3" t="n">
-        <v>102848.8498352183</v>
+        <v>149281.9005315136</v>
       </c>
       <c r="AE3" t="n">
-        <v>140722.3337155095</v>
+        <v>204254.0821597709</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.507696318947881e-06</v>
+        <v>5.426839170594221e-06</v>
       </c>
       <c r="AG3" t="n">
         <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>127291.991690775</v>
+        <v>184760.3592309053</v>
       </c>
     </row>
   </sheetData>
@@ -4403,28 +4403,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.6158054753307</v>
+        <v>173.7232225426042</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.8190397645766</v>
+        <v>237.6957772103546</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.3710471976306</v>
+        <v>215.0104258415857</v>
       </c>
       <c r="AD2" t="n">
-        <v>133615.8054753307</v>
+        <v>173723.2225426042</v>
       </c>
       <c r="AE2" t="n">
-        <v>182819.0397645766</v>
+        <v>237695.7772103546</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.996971481529314e-06</v>
+        <v>4.529304923620232e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.19791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>165371.0471976306</v>
+        <v>215010.4258415857</v>
       </c>
     </row>
     <row r="3">
@@ -4509,28 +4509,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.5822793644714</v>
+        <v>156.540390725795</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.5670649384887</v>
+        <v>214.185468665569</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.388032775985</v>
+        <v>193.7439081473817</v>
       </c>
       <c r="AD3" t="n">
-        <v>108582.2793644714</v>
+        <v>156540.390725795</v>
       </c>
       <c r="AE3" t="n">
-        <v>148567.0649384887</v>
+        <v>214185.468665569</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.361888098861775e-06</v>
+        <v>5.080801206378099e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.986979166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>134388.032775985</v>
+        <v>193743.9081473817</v>
       </c>
     </row>
     <row r="4">
@@ -4615,28 +4615,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>108.8057312199188</v>
+        <v>156.7638425812424</v>
       </c>
       <c r="AB4" t="n">
-        <v>148.8728016251118</v>
+        <v>214.4912053521921</v>
       </c>
       <c r="AC4" t="n">
-        <v>134.664590382341</v>
+        <v>194.0204657537377</v>
       </c>
       <c r="AD4" t="n">
-        <v>108805.7312199188</v>
+        <v>156763.8425812424</v>
       </c>
       <c r="AE4" t="n">
-        <v>148872.8016251118</v>
+        <v>214491.2053521921</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.35740300375576e-06</v>
+        <v>5.074022909196502e-06</v>
       </c>
       <c r="AG4" t="n">
         <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>134664.590382341</v>
+        <v>194020.4657537377</v>
       </c>
     </row>
   </sheetData>
@@ -4912,28 +4912,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.065352029765</v>
+        <v>143.7741588694497</v>
       </c>
       <c r="AB2" t="n">
-        <v>145.1232939201479</v>
+        <v>196.7181470333257</v>
       </c>
       <c r="AC2" t="n">
-        <v>131.2729304302706</v>
+        <v>177.9436431761743</v>
       </c>
       <c r="AD2" t="n">
-        <v>106065.352029765</v>
+        <v>143774.1588694497</v>
       </c>
       <c r="AE2" t="n">
-        <v>145123.2939201479</v>
+        <v>196718.1470333257</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.569077264703198e-06</v>
+        <v>5.640883753467977e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.20833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>131272.9304302706</v>
+        <v>177943.6431761743</v>
       </c>
     </row>
   </sheetData>
@@ -5209,28 +5209,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.7816516009885</v>
+        <v>240.9303379674779</v>
       </c>
       <c r="AB2" t="n">
-        <v>248.7216753608298</v>
+        <v>329.6515175032962</v>
       </c>
       <c r="AC2" t="n">
-        <v>224.9840277475283</v>
+        <v>298.1900393416902</v>
       </c>
       <c r="AD2" t="n">
-        <v>181781.6516009885</v>
+        <v>240930.3379674779</v>
       </c>
       <c r="AE2" t="n">
-        <v>248721.6753608298</v>
+        <v>329651.5175032962</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.31066204243352e-06</v>
+        <v>3.368682509965097e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.48958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>224984.0277475283</v>
+        <v>298190.0393416903</v>
       </c>
     </row>
     <row r="3">
@@ -5315,28 +5315,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>147.3340496208945</v>
+        <v>189.7050523916467</v>
       </c>
       <c r="AB3" t="n">
-        <v>201.588946610746</v>
+        <v>259.5628218783752</v>
       </c>
       <c r="AC3" t="n">
-        <v>182.3495804781373</v>
+        <v>234.7905104570874</v>
       </c>
       <c r="AD3" t="n">
-        <v>147334.0496208945</v>
+        <v>189705.0523916467</v>
       </c>
       <c r="AE3" t="n">
-        <v>201588.946610746</v>
+        <v>259562.8218783753</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.779011350068164e-06</v>
+        <v>4.051482543985425e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.2109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>182349.5804781372</v>
+        <v>234790.5104570874</v>
       </c>
     </row>
     <row r="4">
@@ -5421,28 +5421,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>133.2871848536764</v>
+        <v>184.0469399137461</v>
       </c>
       <c r="AB4" t="n">
-        <v>182.3694065323108</v>
+        <v>251.8211427678102</v>
       </c>
       <c r="AC4" t="n">
-        <v>164.9643263299878</v>
+        <v>227.7876863353173</v>
       </c>
       <c r="AD4" t="n">
-        <v>133287.1848536764</v>
+        <v>184046.9399137461</v>
       </c>
       <c r="AE4" t="n">
-        <v>182369.4065323108</v>
+        <v>251821.1427678102</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.941349471005903e-06</v>
+        <v>4.288153064667722e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.59895833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>164964.3263299878</v>
+        <v>227787.6863353173</v>
       </c>
     </row>
     <row r="5">
@@ -5527,28 +5527,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>130.0031109318665</v>
+        <v>172.288772848047</v>
       </c>
       <c r="AB5" t="n">
-        <v>177.8759917093766</v>
+        <v>235.7330998548082</v>
       </c>
       <c r="AC5" t="n">
-        <v>160.8997567112058</v>
+        <v>213.2350636582171</v>
       </c>
       <c r="AD5" t="n">
-        <v>130003.1109318665</v>
+        <v>172288.772848047</v>
       </c>
       <c r="AE5" t="n">
-        <v>177875.9917093766</v>
+        <v>235733.0998548082</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.020029857450963e-06</v>
+        <v>4.402860121271995e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.3125</v>
       </c>
       <c r="AH5" t="n">
-        <v>160899.7567112058</v>
+        <v>213235.0636582171</v>
       </c>
     </row>
     <row r="6">
@@ -5633,28 +5633,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>129.1574399620944</v>
+        <v>171.4431018782749</v>
       </c>
       <c r="AB6" t="n">
-        <v>176.7189073801649</v>
+        <v>234.5760155255966</v>
       </c>
       <c r="AC6" t="n">
-        <v>159.8531028863956</v>
+        <v>212.188409833407</v>
       </c>
       <c r="AD6" t="n">
-        <v>129157.4399620944</v>
+        <v>171443.1018782749</v>
       </c>
       <c r="AE6" t="n">
-        <v>176718.907380165</v>
+        <v>234576.0155255966</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.04242792366525e-06</v>
+        <v>4.435513954903869e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.24739583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>159853.1028863956</v>
+        <v>212188.409833407</v>
       </c>
     </row>
   </sheetData>
@@ -5930,28 +5930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.4549729932676</v>
+        <v>140.5465315524655</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.5516581606186</v>
+        <v>192.3019649453626</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.0421665748073</v>
+        <v>173.9489353085344</v>
       </c>
       <c r="AD2" t="n">
-        <v>103454.9729932676</v>
+        <v>140546.5315524655</v>
       </c>
       <c r="AE2" t="n">
-        <v>141551.6581606186</v>
+        <v>192301.9649453626</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.587692647998437e-06</v>
+        <v>5.748326362765787e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>128042.1665748073</v>
+        <v>173948.9353085344</v>
       </c>
     </row>
   </sheetData>
@@ -6227,28 +6227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.1957495151512</v>
+        <v>204.5097751009673</v>
       </c>
       <c r="AB2" t="n">
-        <v>212.3456712397836</v>
+        <v>279.8192966275274</v>
       </c>
       <c r="AC2" t="n">
-        <v>192.0796984057407</v>
+        <v>253.1137356863277</v>
       </c>
       <c r="AD2" t="n">
-        <v>155195.7495151512</v>
+        <v>204509.7751009674</v>
       </c>
       <c r="AE2" t="n">
-        <v>212345.6712397836</v>
+        <v>279819.2966275274</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.662529715165973e-06</v>
+        <v>3.953439134719266e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.16145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>192079.6984057407</v>
+        <v>253113.7356863277</v>
       </c>
     </row>
     <row r="3">
@@ -6333,28 +6333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>126.4599671841021</v>
+        <v>167.7113721485377</v>
       </c>
       <c r="AB3" t="n">
-        <v>173.0281061212176</v>
+        <v>229.4700982770761</v>
       </c>
       <c r="AC3" t="n">
-        <v>156.5145465195289</v>
+        <v>207.5697941608838</v>
       </c>
       <c r="AD3" t="n">
-        <v>126459.9671841021</v>
+        <v>167711.3721485377</v>
       </c>
       <c r="AE3" t="n">
-        <v>173028.1061212176</v>
+        <v>229470.0982770761</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.08302341969154e-06</v>
+        <v>4.577806351319826e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.5078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>156514.546519529</v>
+        <v>207569.7941608838</v>
       </c>
     </row>
     <row r="4">
@@ -6439,28 +6439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>122.4372791135791</v>
+        <v>163.5180918774225</v>
       </c>
       <c r="AB4" t="n">
-        <v>167.5240868346582</v>
+        <v>223.7326672156699</v>
       </c>
       <c r="AC4" t="n">
-        <v>151.5358231087374</v>
+        <v>202.3799354674413</v>
       </c>
       <c r="AD4" t="n">
-        <v>122437.2791135791</v>
+        <v>163518.0918774225</v>
       </c>
       <c r="AE4" t="n">
-        <v>167524.0868346582</v>
+        <v>223732.6672156699</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.207813173679249e-06</v>
+        <v>4.763099568599935e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.10416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>151535.8231087374</v>
+        <v>202379.9354674413</v>
       </c>
     </row>
     <row r="5">
@@ -6545,28 +6545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>122.5575197107858</v>
+        <v>163.6383324746292</v>
       </c>
       <c r="AB5" t="n">
-        <v>167.6886053243971</v>
+        <v>223.8971857054088</v>
       </c>
       <c r="AC5" t="n">
-        <v>151.6846401847189</v>
+        <v>202.5287525434227</v>
       </c>
       <c r="AD5" t="n">
-        <v>122557.5197107858</v>
+        <v>163638.3324746292</v>
       </c>
       <c r="AE5" t="n">
-        <v>167688.6053243971</v>
+        <v>223897.1857054088</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.207589268618266e-06</v>
+        <v>4.762767104693333e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.10416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>151684.6401847189</v>
+        <v>202528.7525434227</v>
       </c>
     </row>
   </sheetData>
@@ -6842,28 +6842,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.9913646283289</v>
+        <v>222.4155666252833</v>
       </c>
       <c r="AB2" t="n">
-        <v>224.3802198727799</v>
+        <v>304.3187905388546</v>
       </c>
       <c r="AC2" t="n">
-        <v>202.9656866078028</v>
+        <v>275.2750322840213</v>
       </c>
       <c r="AD2" t="n">
-        <v>163991.3646283289</v>
+        <v>222415.5666252833</v>
       </c>
       <c r="AE2" t="n">
-        <v>224380.2198727799</v>
+        <v>304318.7905388546</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.478679308477211e-06</v>
+        <v>3.644755347355341e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.79947916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>202965.6866078028</v>
+        <v>275275.0322840213</v>
       </c>
     </row>
     <row r="3">
@@ -6948,28 +6948,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>132.7503471900628</v>
+        <v>182.8160430653707</v>
       </c>
       <c r="AB3" t="n">
-        <v>181.6348815573488</v>
+        <v>250.1369753965274</v>
       </c>
       <c r="AC3" t="n">
-        <v>164.2999033877237</v>
+        <v>226.2642535342055</v>
       </c>
       <c r="AD3" t="n">
-        <v>132750.3471900628</v>
+        <v>182816.0430653707</v>
       </c>
       <c r="AE3" t="n">
-        <v>181634.8815573488</v>
+        <v>250136.9753965274</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.922075416311136e-06</v>
+        <v>4.296743819400595e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>164299.9033877237</v>
+        <v>226264.2535342055</v>
       </c>
     </row>
     <row r="4">
@@ -7054,28 +7054,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>127.5448162238526</v>
+        <v>169.2520954860649</v>
       </c>
       <c r="AB4" t="n">
-        <v>174.5124444375653</v>
+        <v>231.5781839193963</v>
       </c>
       <c r="AC4" t="n">
-        <v>157.8572216702468</v>
+        <v>209.4766870682184</v>
       </c>
       <c r="AD4" t="n">
-        <v>127544.8162238526</v>
+        <v>169252.0954860649</v>
       </c>
       <c r="AE4" t="n">
-        <v>174512.4444375653</v>
+        <v>231578.1839193963</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.075716189685365e-06</v>
+        <v>4.522663739098299e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.32552083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>157857.2216702468</v>
+        <v>209476.6870682184</v>
       </c>
     </row>
     <row r="5">
@@ -7160,28 +7160,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>125.6782300222313</v>
+        <v>167.3855092844437</v>
       </c>
       <c r="AB5" t="n">
-        <v>171.958498848537</v>
+        <v>229.0242383303681</v>
       </c>
       <c r="AC5" t="n">
-        <v>155.5470210637494</v>
+        <v>207.166486461721</v>
       </c>
       <c r="AD5" t="n">
-        <v>125678.2300222313</v>
+        <v>167385.5092844437</v>
       </c>
       <c r="AE5" t="n">
-        <v>171958.498848537</v>
+        <v>229024.2383303681</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.130001133728583e-06</v>
+        <v>4.602486626797296e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.14322916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>155547.0210637494</v>
+        <v>207166.486461721</v>
       </c>
     </row>
   </sheetData>
@@ -7457,28 +7457,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>201.0656850785774</v>
+        <v>261.0544001908635</v>
       </c>
       <c r="AB2" t="n">
-        <v>275.1069407163676</v>
+        <v>357.1861472484544</v>
       </c>
       <c r="AC2" t="n">
-        <v>248.8511204094945</v>
+        <v>323.0968026689674</v>
       </c>
       <c r="AD2" t="n">
-        <v>201065.6850785774</v>
+        <v>261054.4001908635</v>
       </c>
       <c r="AE2" t="n">
-        <v>275106.9407163676</v>
+        <v>357186.1472484544</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.147645082674892e-06</v>
+        <v>3.107153859689266e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.27083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>248851.1204094945</v>
+        <v>323096.8026689674</v>
       </c>
     </row>
     <row r="3">
@@ -7563,28 +7563,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>154.2926466480472</v>
+        <v>205.7846178980216</v>
       </c>
       <c r="AB3" t="n">
-        <v>211.110006054926</v>
+        <v>281.563592784551</v>
       </c>
       <c r="AC3" t="n">
-        <v>190.9619633718585</v>
+        <v>254.6915586662606</v>
       </c>
       <c r="AD3" t="n">
-        <v>154292.6466480472</v>
+        <v>205784.6178980216</v>
       </c>
       <c r="AE3" t="n">
-        <v>211110.006054926</v>
+        <v>281563.592784551</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.621995132103119e-06</v>
+        <v>3.793430469737418e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.6796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>190961.9633718585</v>
+        <v>254691.5586662606</v>
       </c>
     </row>
     <row r="4">
@@ -7669,28 +7669,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>139.4020338413391</v>
+        <v>190.8086642367418</v>
       </c>
       <c r="AB4" t="n">
-        <v>190.7360126853247</v>
+        <v>261.0728322927521</v>
       </c>
       <c r="AC4" t="n">
-        <v>172.5324353343663</v>
+        <v>236.1564075968295</v>
       </c>
       <c r="AD4" t="n">
-        <v>139402.0338413391</v>
+        <v>190808.6642367418</v>
       </c>
       <c r="AE4" t="n">
-        <v>190736.0126853247</v>
+        <v>261072.8322927521</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.800785173549728e-06</v>
+        <v>4.052098986167948e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.9375</v>
       </c>
       <c r="AH4" t="n">
-        <v>172532.4353343663</v>
+        <v>236156.4075968295</v>
       </c>
     </row>
     <row r="5">
@@ -7775,28 +7775,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>135.3400201832017</v>
+        <v>178.3353370794187</v>
       </c>
       <c r="AB5" t="n">
-        <v>185.1781863948689</v>
+        <v>244.006275791754</v>
       </c>
       <c r="AC5" t="n">
-        <v>167.5050401846116</v>
+        <v>220.7186592952188</v>
       </c>
       <c r="AD5" t="n">
-        <v>135340.0201832017</v>
+        <v>178335.3370794187</v>
       </c>
       <c r="AE5" t="n">
-        <v>185178.1863948689</v>
+        <v>244006.275791754</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.901908952749298e-06</v>
+        <v>4.198402089683992e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.55989583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>167505.0401846116</v>
+        <v>220718.6592952188</v>
       </c>
     </row>
     <row r="6">
@@ -7881,28 +7881,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>132.417499495099</v>
+        <v>175.2422241907238</v>
       </c>
       <c r="AB6" t="n">
-        <v>181.1794646568956</v>
+        <v>239.774142278934</v>
       </c>
       <c r="AC6" t="n">
-        <v>163.887950837068</v>
+        <v>216.8904346650242</v>
       </c>
       <c r="AD6" t="n">
-        <v>132417.499495099</v>
+        <v>175242.2241907238</v>
       </c>
       <c r="AE6" t="n">
-        <v>181179.4646568956</v>
+        <v>239774.142278934</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.963552578040799e-06</v>
+        <v>4.287586391966923e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.33854166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>163887.950837068</v>
+        <v>216890.4346650242</v>
       </c>
     </row>
     <row r="7">
@@ -7987,28 +7987,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>132.5868396298702</v>
+        <v>175.4115643254949</v>
       </c>
       <c r="AB7" t="n">
-        <v>181.4111633000489</v>
+        <v>240.0058409220872</v>
       </c>
       <c r="AC7" t="n">
-        <v>164.0975364869099</v>
+        <v>217.100020314866</v>
       </c>
       <c r="AD7" t="n">
-        <v>132586.8396298702</v>
+        <v>175411.5643254949</v>
       </c>
       <c r="AE7" t="n">
-        <v>181411.1633000489</v>
+        <v>240005.8409220872</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.961693858041551e-06</v>
+        <v>4.284897246974421e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.33854166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>164097.5364869099</v>
+        <v>217100.020314866</v>
       </c>
     </row>
   </sheetData>
@@ -8284,28 +8284,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.7264851732764</v>
+        <v>186.1307483718772</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.4434530776923</v>
+        <v>254.6723014313648</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.458674398058</v>
+        <v>230.3667344176494</v>
       </c>
       <c r="AD2" t="n">
-        <v>137726.4851732765</v>
+        <v>186130.7483718772</v>
       </c>
       <c r="AE2" t="n">
-        <v>188443.4530776923</v>
+        <v>254672.3014313648</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.888192519801499e-06</v>
+        <v>4.337154269356344e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.47135416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>170458.674398058</v>
+        <v>230366.7344176495</v>
       </c>
     </row>
     <row r="3">
@@ -8390,28 +8390,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>119.8919826657355</v>
+        <v>160.285777485709</v>
       </c>
       <c r="AB3" t="n">
-        <v>164.0414999441661</v>
+        <v>219.310072065283</v>
       </c>
       <c r="AC3" t="n">
-        <v>148.3856094232314</v>
+        <v>198.3794265910546</v>
       </c>
       <c r="AD3" t="n">
-        <v>119891.9826657355</v>
+        <v>160285.777485709</v>
       </c>
       <c r="AE3" t="n">
-        <v>164041.4999441661</v>
+        <v>219310.072065283</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.267148791479899e-06</v>
+        <v>4.906227071927794e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.14322916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>148385.6094232314</v>
+        <v>198379.4265910546</v>
       </c>
     </row>
     <row r="4">
@@ -8496,28 +8496,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>118.8853613137643</v>
+        <v>159.2791561337378</v>
       </c>
       <c r="AB4" t="n">
-        <v>162.6641962014</v>
+        <v>217.9327683225169</v>
       </c>
       <c r="AC4" t="n">
-        <v>147.1397536166165</v>
+        <v>197.1335707844397</v>
       </c>
       <c r="AD4" t="n">
-        <v>118885.3613137643</v>
+        <v>159279.1561337378</v>
       </c>
       <c r="AE4" t="n">
-        <v>162664.1962014</v>
+        <v>217932.7683225169</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.300213286167584e-06</v>
+        <v>4.955879514871126e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.0390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>147139.7536166165</v>
+        <v>197133.5707844397</v>
       </c>
     </row>
   </sheetData>
@@ -8793,28 +8793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.500536533948</v>
+        <v>155.8768373489213</v>
       </c>
       <c r="AB2" t="n">
-        <v>159.4011737266131</v>
+        <v>213.2775656614219</v>
       </c>
       <c r="AC2" t="n">
-        <v>144.1881494271414</v>
+        <v>192.9226541317002</v>
       </c>
       <c r="AD2" t="n">
-        <v>116500.536533948</v>
+        <v>155876.8373489213</v>
       </c>
       <c r="AE2" t="n">
-        <v>159401.1737266131</v>
+        <v>213277.5656614219</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.280921933492243e-06</v>
+        <v>5.032103348828477e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.52083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>144188.1494271414</v>
+        <v>192922.6541317002</v>
       </c>
     </row>
     <row r="3">
@@ -8899,28 +8899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.9192751187936</v>
+        <v>151.8977453621323</v>
       </c>
       <c r="AB3" t="n">
-        <v>143.5551809292128</v>
+        <v>207.8331964599509</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.8544759423293</v>
+        <v>187.9978878855957</v>
       </c>
       <c r="AD3" t="n">
-        <v>104919.2751187936</v>
+        <v>151897.7453621323</v>
       </c>
       <c r="AE3" t="n">
-        <v>143555.1809292127</v>
+        <v>207833.1964599509</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.452284686792769e-06</v>
+        <v>5.29493041458258e-06</v>
       </c>
       <c r="AG3" t="n">
         <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>129854.4759423293</v>
+        <v>187997.8878855957</v>
       </c>
     </row>
   </sheetData>
@@ -15473,28 +15473,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.340821302907</v>
+        <v>146.5968704073429</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.2366913662786</v>
+        <v>200.5803054887135</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.0891895938243</v>
+        <v>181.4372026491545</v>
       </c>
       <c r="AD2" t="n">
-        <v>108340.821302907</v>
+        <v>146596.8704073429</v>
       </c>
       <c r="AE2" t="n">
-        <v>148236.6913662786</v>
+        <v>200580.3054887135</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.542265640708913e-06</v>
+        <v>5.534720191123036e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>134089.1895938243</v>
+        <v>181437.2026491545</v>
       </c>
     </row>
     <row r="3">
@@ -15579,28 +15579,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.648019148356</v>
+        <v>146.9040682527919</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.6570130110342</v>
+        <v>201.0006271334691</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.4693963307296</v>
+        <v>181.8174093860599</v>
       </c>
       <c r="AD3" t="n">
-        <v>108648.019148356</v>
+        <v>146904.0682527919</v>
       </c>
       <c r="AE3" t="n">
-        <v>148657.0130110342</v>
+        <v>201000.6271334691</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.534668096941482e-06</v>
+        <v>5.522849178850752e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.10416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>134469.3963307297</v>
+        <v>181817.4093860599</v>
       </c>
     </row>
   </sheetData>
@@ -15876,28 +15876,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.475698109165</v>
+        <v>144.1408942095809</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.4752828278599</v>
+        <v>197.2199305049144</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.3548347825771</v>
+        <v>178.3975371374922</v>
       </c>
       <c r="AD2" t="n">
-        <v>100475.698109165</v>
+        <v>144140.894209581</v>
       </c>
       <c r="AE2" t="n">
-        <v>137475.2828278599</v>
+        <v>197219.9305049144</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.556826126445042e-06</v>
+        <v>5.796474647838446e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.78125</v>
       </c>
       <c r="AH2" t="n">
-        <v>124354.8347825771</v>
+        <v>178397.5371374922</v>
       </c>
     </row>
   </sheetData>
@@ -16173,28 +16173,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.9957991135896</v>
+        <v>208.6937216028955</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.5450667467207</v>
+        <v>285.543956814155</v>
       </c>
       <c r="AC2" t="n">
-        <v>196.7828709028948</v>
+        <v>258.2920423393565</v>
       </c>
       <c r="AD2" t="n">
-        <v>158995.7991135895</v>
+        <v>208693.7216028955</v>
       </c>
       <c r="AE2" t="n">
-        <v>217545.0667467207</v>
+        <v>285543.956814155</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.581761817187578e-06</v>
+        <v>3.814245351197161e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>196782.8709028949</v>
+        <v>258292.0423393565</v>
       </c>
     </row>
     <row r="3">
@@ -16279,28 +16279,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.6534806006289</v>
+        <v>179.3513135813837</v>
       </c>
       <c r="AB3" t="n">
-        <v>177.3976120655759</v>
+        <v>245.3963796634618</v>
       </c>
       <c r="AC3" t="n">
-        <v>160.4670329491992</v>
+        <v>221.9760936044343</v>
       </c>
       <c r="AD3" t="n">
-        <v>129653.4806006289</v>
+        <v>179351.3135813837</v>
       </c>
       <c r="AE3" t="n">
-        <v>177397.6120655759</v>
+        <v>245396.3796634618</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.996865433158129e-06</v>
+        <v>4.427511465422048e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>160467.0329491992</v>
+        <v>221976.0936044343</v>
       </c>
     </row>
     <row r="4">
@@ -16385,28 +16385,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>124.7594714410888</v>
+        <v>166.1601982911736</v>
       </c>
       <c r="AB4" t="n">
-        <v>170.7014128250505</v>
+        <v>227.3477137724709</v>
       </c>
       <c r="AC4" t="n">
-        <v>154.4099095660127</v>
+        <v>205.6499670546121</v>
       </c>
       <c r="AD4" t="n">
-        <v>124759.4714410888</v>
+        <v>166160.1982911736</v>
       </c>
       <c r="AE4" t="n">
-        <v>170701.4128250505</v>
+        <v>227347.7137724709</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.149356495213854e-06</v>
+        <v>4.652798833401938e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.18229166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>154409.9095660127</v>
+        <v>205649.9670546121</v>
       </c>
     </row>
     <row r="5">
@@ -16491,28 +16491,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>124.2116403243512</v>
+        <v>165.612367174436</v>
       </c>
       <c r="AB5" t="n">
-        <v>169.9518461225273</v>
+        <v>226.5981470699477</v>
       </c>
       <c r="AC5" t="n">
-        <v>153.7318804575547</v>
+        <v>204.971937946154</v>
       </c>
       <c r="AD5" t="n">
-        <v>124211.6403243512</v>
+        <v>165612.367174436</v>
       </c>
       <c r="AE5" t="n">
-        <v>169951.8461225273</v>
+        <v>226598.1470699477</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.163734083241066e-06</v>
+        <v>4.674040005972209e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.13020833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>153731.8804575547</v>
+        <v>204971.937946154</v>
       </c>
     </row>
   </sheetData>
@@ -16788,28 +16788,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.7972916668868</v>
+        <v>246.5001715518325</v>
       </c>
       <c r="AB2" t="n">
-        <v>255.5842953734113</v>
+        <v>337.2724095371219</v>
       </c>
       <c r="AC2" t="n">
-        <v>231.1916889378589</v>
+        <v>305.0836041357992</v>
       </c>
       <c r="AD2" t="n">
-        <v>186797.2916668868</v>
+        <v>246500.1715518325</v>
       </c>
       <c r="AE2" t="n">
-        <v>255584.2953734113</v>
+        <v>337272.4095371219</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.231721934839954e-06</v>
+        <v>3.240837445273769e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.84114583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>231191.6889378589</v>
+        <v>305083.6041357992</v>
       </c>
     </row>
     <row r="3">
@@ -16894,28 +16894,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.9491712554975</v>
+        <v>201.9524760991444</v>
       </c>
       <c r="AB3" t="n">
-        <v>206.5353155191177</v>
+        <v>276.3202873131656</v>
       </c>
       <c r="AC3" t="n">
-        <v>186.8238748801678</v>
+        <v>249.9486669100371</v>
       </c>
       <c r="AD3" t="n">
-        <v>150949.1712554975</v>
+        <v>201952.4760991444</v>
       </c>
       <c r="AE3" t="n">
-        <v>206535.3155191177</v>
+        <v>276320.2873131656</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.693505773234993e-06</v>
+        <v>3.911425627309188e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.47135416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>186823.8748801678</v>
+        <v>249948.6669100371</v>
       </c>
     </row>
     <row r="4">
@@ -17000,28 +17000,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>136.2898278468678</v>
+        <v>187.3783840365353</v>
       </c>
       <c r="AB4" t="n">
-        <v>186.4777551428529</v>
+        <v>256.37937158955</v>
       </c>
       <c r="AC4" t="n">
-        <v>168.6805799152446</v>
+        <v>231.9108841958261</v>
       </c>
       <c r="AD4" t="n">
-        <v>136289.8278468678</v>
+        <v>187378.3840365353</v>
       </c>
       <c r="AE4" t="n">
-        <v>186477.7551428529</v>
+        <v>256379.37158955</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.87174271019168e-06</v>
+        <v>4.170255784598277e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.75520833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>168680.5799152446</v>
+        <v>231910.8841958261</v>
       </c>
     </row>
     <row r="5">
@@ -17106,28 +17106,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>132.0853117417357</v>
+        <v>174.6449745992477</v>
       </c>
       <c r="AB5" t="n">
-        <v>180.7249507176547</v>
+        <v>238.9569590390844</v>
       </c>
       <c r="AC5" t="n">
-        <v>163.4768150702738</v>
+        <v>216.1512422466618</v>
       </c>
       <c r="AD5" t="n">
-        <v>132085.3117417357</v>
+        <v>174644.9745992477</v>
       </c>
       <c r="AE5" t="n">
-        <v>180724.9507176547</v>
+        <v>238956.9590390844</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.97975718829148e-06</v>
+        <v>4.327111062934123e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.36458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>163476.8150702738</v>
+        <v>216151.2422466617</v>
       </c>
     </row>
     <row r="6">
@@ -17212,28 +17212,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>130.9375098780194</v>
+        <v>173.4971727355314</v>
       </c>
       <c r="AB6" t="n">
-        <v>179.1544775702745</v>
+        <v>237.3864858917042</v>
       </c>
       <c r="AC6" t="n">
-        <v>162.0562256759061</v>
+        <v>214.7306528522941</v>
       </c>
       <c r="AD6" t="n">
-        <v>130937.5098780194</v>
+        <v>173497.1727355314</v>
       </c>
       <c r="AE6" t="n">
-        <v>179154.4775702745</v>
+        <v>237386.4858917042</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.989863528653992e-06</v>
+        <v>4.341787177269961e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.32552083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>162056.2256759061</v>
+        <v>214730.6528522941</v>
       </c>
     </row>
     <row r="7">
@@ -17318,28 +17318,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>131.1037554956822</v>
+        <v>173.6634183531943</v>
       </c>
       <c r="AB7" t="n">
-        <v>179.3819421585997</v>
+        <v>237.6139504800294</v>
       </c>
       <c r="AC7" t="n">
-        <v>162.2619813631702</v>
+        <v>214.9364085395582</v>
       </c>
       <c r="AD7" t="n">
-        <v>131103.7554956822</v>
+        <v>173663.4183531943</v>
       </c>
       <c r="AE7" t="n">
-        <v>179381.9421585997</v>
+        <v>237613.9504800295</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.988938300310946e-06</v>
+        <v>4.340443589337808e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.33854166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>162261.9813631702</v>
+        <v>214936.4085395582</v>
       </c>
     </row>
   </sheetData>
@@ -17615,28 +17615,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.201575715388</v>
+        <v>146.895559536954</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.5731929428106</v>
+        <v>200.9889851330817</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.9662075111203</v>
+        <v>181.8068784818497</v>
       </c>
       <c r="AD2" t="n">
-        <v>104201.575715388</v>
+        <v>146895.559536954</v>
       </c>
       <c r="AE2" t="n">
-        <v>142573.1929428106</v>
+        <v>200988.9851330817</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.383629503079526e-06</v>
+        <v>5.640308788229976e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.73177083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>128966.2075111203</v>
+        <v>181806.8784818497</v>
       </c>
     </row>
   </sheetData>
@@ -17912,28 +17912,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.162152421926</v>
+        <v>168.732057422249</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.77940224052</v>
+        <v>230.8666448980235</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.957648763583</v>
+        <v>208.8330563323939</v>
       </c>
       <c r="AD2" t="n">
-        <v>121162.152421926</v>
+        <v>168732.057422249</v>
       </c>
       <c r="AE2" t="n">
-        <v>165779.40224052</v>
+        <v>230866.6448980235</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.125975160153154e-06</v>
+        <v>4.757442295575082e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.88541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>149957.648763583</v>
+        <v>208833.0563323939</v>
       </c>
     </row>
     <row r="3">
@@ -18018,28 +18018,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.9679721054682</v>
+        <v>154.5954256385264</v>
       </c>
       <c r="AB3" t="n">
-        <v>157.3042514635973</v>
+        <v>211.5242816273657</v>
       </c>
       <c r="AC3" t="n">
-        <v>142.2913544818583</v>
+        <v>191.3367010651042</v>
       </c>
       <c r="AD3" t="n">
-        <v>114967.9721054682</v>
+        <v>154595.4256385264</v>
       </c>
       <c r="AE3" t="n">
-        <v>157304.2514635973</v>
+        <v>211524.2816273657</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.397052736290005e-06</v>
+        <v>5.169997053698063e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.01302083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>142291.3544818583</v>
+        <v>191336.7010651042</v>
       </c>
     </row>
   </sheetData>
@@ -18315,28 +18315,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.1463682646531</v>
+        <v>191.1436951828396</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.4909321147911</v>
+        <v>261.5312364137251</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.9289905235481</v>
+        <v>236.5710622718712</v>
       </c>
       <c r="AD2" t="n">
-        <v>142146.3682646531</v>
+        <v>191143.6951828396</v>
       </c>
       <c r="AE2" t="n">
-        <v>194490.9321147911</v>
+        <v>261531.2364137251</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.775621271397911e-06</v>
+        <v>4.143754678623084e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>175928.9905235481</v>
+        <v>236571.0622718712</v>
       </c>
     </row>
     <row r="3">
@@ -18421,28 +18421,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.351520097496</v>
+        <v>164.0973745166308</v>
       </c>
       <c r="AB3" t="n">
-        <v>168.7749916823183</v>
+        <v>224.5252672787807</v>
       </c>
       <c r="AC3" t="n">
-        <v>152.6673433533932</v>
+        <v>203.0968908929502</v>
       </c>
       <c r="AD3" t="n">
-        <v>123351.520097496</v>
+        <v>164097.3745166308</v>
       </c>
       <c r="AE3" t="n">
-        <v>168774.9916823183</v>
+        <v>224525.2672787807</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.160376544703853e-06</v>
+        <v>4.718159940722633e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.36458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>152667.3433533932</v>
+        <v>203096.8908929502</v>
       </c>
     </row>
     <row r="4">
@@ -18527,28 +18527,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>120.5720698376103</v>
+        <v>161.3179242567451</v>
       </c>
       <c r="AB4" t="n">
-        <v>164.9720252160533</v>
+        <v>220.7223008125157</v>
       </c>
       <c r="AC4" t="n">
-        <v>149.2273266691704</v>
+        <v>199.6568742087274</v>
       </c>
       <c r="AD4" t="n">
-        <v>120572.0698376103</v>
+        <v>161317.9242567451</v>
       </c>
       <c r="AE4" t="n">
-        <v>164972.0252160533</v>
+        <v>220722.3008125157</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.253578132647529e-06</v>
+        <v>4.857301588063518e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.06510416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>149227.3266691704</v>
+        <v>199656.8742087274</v>
       </c>
     </row>
   </sheetData>
